--- a/Sinema/Raporlar/SalonRapor.xlsx
+++ b/Sinema/Raporlar/SalonRapor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goksen\source\repos\Sinema\Sinema\bin\Debug\Raporlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goksen\source\repos\Sinema\Sinema\Raporlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>[[Context.No]]</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>[[Context.Müşteri.Soyad]]</t>
-  </si>
-  <si>
-    <t>[[Context.Müşteri.Siparis.Urun.ÜrünAdi]]</t>
-  </si>
-  <si>
-    <t>[[Context.Müşteri.Siparis.Urun.ToplamFiyat]]</t>
-  </si>
-  <si>
-    <t>ALINAN ÜRÜN</t>
-  </si>
-  <si>
-    <t>FİYAT</t>
   </si>
 </sst>
 </file>
@@ -192,13 +180,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -339,23 +321,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A1:C2" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A1:C2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="KOLTUK NO" dataDxfId="4"/>
-    <tableColumn id="2" name="MÜŞTERİ AD" dataDxfId="3"/>
-    <tableColumn id="3" name="MÜŞTERİ SOYAD" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="B3:C4" totalsRowShown="0">
-  <autoFilter ref="B3:C4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="ALINAN ÜRÜN" dataDxfId="1"/>
-    <tableColumn id="2" name="FİYAT" dataDxfId="0"/>
+    <tableColumn id="1" name="KOLTUK NO" dataDxfId="2"/>
+    <tableColumn id="2" name="MÜŞTERİ AD" dataDxfId="1"/>
+    <tableColumn id="3" name="MÜŞTERİ SOYAD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,7 +598,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,22 +630,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -682,9 +640,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>